--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_22_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_22_43.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77286.45497571942</v>
+        <v>5151068.34050909</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77286.45497571942</v>
+        <v>5151068.34050909</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1037050838.875529</v>
+        <v>40033068.73584151</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12320.61352655552</v>
+        <v>1131698.680704276</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22481.53973203707</v>
+        <v>1889666.710833896</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32642.46593751859</v>
+        <v>2647634.740963516</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43003.28807090019</v>
+        <v>3404843.073550283</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53364.11020428178</v>
+        <v>4162051.406137052</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63724.9291513202</v>
+        <v>4919259.738723817</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74085.74809835863</v>
+        <v>5676468.07131058</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>84446.51293998906</v>
+        <v>6433676.403897344</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>94807.33507337068</v>
+        <v>7190884.736484106</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>105168.1572067484</v>
+        <v>7948093.069070876</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>115528.9793401301</v>
+        <v>8705301.401657637</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>125889.8014735117</v>
+        <v>9462509.734244404</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>136250.6236068933</v>
+        <v>10219718.06683118</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>146611.4457402748</v>
+        <v>10976926.39941796</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>156972.2678736566</v>
+        <v>11734134.73200473</v>
       </c>
     </row>
   </sheetData>
